--- a/MCNP/Python/database/Nuclides.xlsx
+++ b/MCNP/Python/database/Nuclides.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyWork\MCNP\Python\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A768CE-C9A2-4988-8912-D4A0512CB8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48423CE8-0949-4424-B93D-91FA361FB478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3D558FC6-BF8A-449A-85D0-CF64D52382F0}"/>
   </bookViews>
